--- a/output/summary_fish_samples_sp.xlsx
+++ b/output/summary_fish_samples_sp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
-    <t xml:space="preserve">Campaign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Habitat</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t xml:space="preserve">Mancopsetta mancopsetta</t>
   </si>
   <si>
-    <t xml:space="preserve">Poker II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demersal</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bathylagus tenuis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isotopes_2005</t>
   </si>
   <si>
     <t xml:space="preserve">Bathypelagic</t>
@@ -599,1449 +590,1353 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>24.5</v>
       </c>
       <c r="F2" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>4.94974746830583</v>
       </c>
       <c r="I2" t="n">
-        <v>4.94974746830583</v>
+        <v>0.202030508910442</v>
       </c>
       <c r="J2" t="n">
-        <v>0.202030508910442</v>
+        <v>73.9743951585144</v>
       </c>
       <c r="K2" t="n">
-        <v>73.9743951585144</v>
+        <v>73.014722630609</v>
       </c>
       <c r="L2" t="n">
-        <v>73.014722630609</v>
+        <v>74.9340676864198</v>
       </c>
       <c r="M2" t="n">
-        <v>74.9340676864198</v>
+        <v>1.35718190440068</v>
       </c>
       <c r="N2" t="n">
-        <v>1.35718190440068</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.0183466441529191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0588235294117647</v>
+        <v>73.1424630525432</v>
       </c>
       <c r="K3" t="n">
-        <v>73.1424630525432</v>
+        <v>69.850675515525</v>
       </c>
       <c r="L3" t="n">
-        <v>69.850675515525</v>
+        <v>75.9294068504595</v>
       </c>
       <c r="M3" t="n">
-        <v>75.9294068504595</v>
+        <v>2.30547165915567</v>
       </c>
       <c r="N3" t="n">
-        <v>2.30547165915567</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.031520290169877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>12.4</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2.59058123036339</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4142135623731</v>
+        <v>0.208917841158338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.157134840263677</v>
+        <v>75.3753075321792</v>
       </c>
       <c r="K4" t="n">
-        <v>81.2694867040911</v>
+        <v>70.266753415745</v>
       </c>
       <c r="L4" t="n">
-        <v>77.96938577795</v>
+        <v>83.1037649219468</v>
       </c>
       <c r="M4" t="n">
-        <v>83.1037649219468</v>
+        <v>4.89549118492236</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86390283663242</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0352395831791103</v>
+        <v>0.0649482084412376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>33.5</v>
       </c>
       <c r="F5" t="n">
-        <v>13.25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>3.34165627596057</v>
       </c>
       <c r="I5" t="n">
-        <v>2.0528725518857</v>
+        <v>0.0997509336107633</v>
       </c>
       <c r="J5" t="n">
-        <v>0.154933777500808</v>
+        <v>78.8547982474088</v>
       </c>
       <c r="K5" t="n">
-        <v>73.1649903427122</v>
+        <v>77.3501983063565</v>
       </c>
       <c r="L5" t="n">
-        <v>70.266753415745</v>
+        <v>80.5041480536056</v>
       </c>
       <c r="M5" t="n">
-        <v>80.1023756398478</v>
+        <v>1.00628596330225</v>
       </c>
       <c r="N5" t="n">
-        <v>3.37948431283652</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0461899099146555</v>
+        <v>0.0127612521453038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+      <c r="D6" t="n">
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>23.7</v>
       </c>
       <c r="F6" t="n">
-        <v>33.5</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
         <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>3.43349514181816</v>
       </c>
       <c r="I6" t="n">
-        <v>3.34165627596057</v>
+        <v>0.144873212734943</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0997509336107633</v>
+        <v>78.5251181746024</v>
       </c>
       <c r="K6" t="n">
-        <v>78.8547982474088</v>
+        <v>74.9137957814296</v>
       </c>
       <c r="L6" t="n">
-        <v>77.3501983063565</v>
+        <v>82.4933357538003</v>
       </c>
       <c r="M6" t="n">
-        <v>80.5041480536056</v>
+        <v>2.58531429525467</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00628596330225</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0127612521453038</v>
+        <v>0.0329234053428122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>19.6</v>
       </c>
       <c r="F7" t="n">
-        <v>23.7</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>28</v>
+        <v>3.65756445982539</v>
       </c>
       <c r="I7" t="n">
-        <v>3.43349514181816</v>
+        <v>0.186610431623744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.144873212734943</v>
+        <v>76.2002109389917</v>
       </c>
       <c r="K7" t="n">
-        <v>78.5251181746024</v>
+        <v>73.8855516914322</v>
       </c>
       <c r="L7" t="n">
-        <v>74.9137957814296</v>
+        <v>78.3835282909014</v>
       </c>
       <c r="M7" t="n">
-        <v>82.4933357538003</v>
+        <v>1.43946341010333</v>
       </c>
       <c r="N7" t="n">
-        <v>2.58531429525467</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0329234053428122</v>
+        <v>0.0188905436397782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>32.8</v>
       </c>
       <c r="F8" t="n">
-        <v>19.6</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>24</v>
+        <v>2.0976176963403</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65756445982539</v>
+        <v>0.0639517590347654</v>
       </c>
       <c r="J8" t="n">
-        <v>0.186610431623744</v>
+        <v>69.748952222466</v>
       </c>
       <c r="K8" t="n">
-        <v>76.2002109389917</v>
+        <v>65.6665016466131</v>
       </c>
       <c r="L8" t="n">
-        <v>73.8855516914322</v>
+        <v>74.3020264759395</v>
       </c>
       <c r="M8" t="n">
-        <v>78.3835282909014</v>
+        <v>2.79426054636922</v>
       </c>
       <c r="N8" t="n">
-        <v>1.43946341010333</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0188905436397782</v>
+        <v>0.0400616849046973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>22.5555555555556</v>
       </c>
       <c r="F9" t="n">
-        <v>32.8</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
         <v>29</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>3.60940130461795</v>
       </c>
       <c r="I9" t="n">
-        <v>2.0976176963403</v>
+        <v>0.160022717938727</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0639517590347654</v>
+        <v>73.5411322311717</v>
       </c>
       <c r="K9" t="n">
-        <v>69.748952222466</v>
+        <v>68.7323503952092</v>
       </c>
       <c r="L9" t="n">
-        <v>65.6665016466131</v>
+        <v>77.2364796288241</v>
       </c>
       <c r="M9" t="n">
-        <v>74.3020264759395</v>
+        <v>3.03046902812976</v>
       </c>
       <c r="N9" t="n">
-        <v>2.79426054636922</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0400616849046973</v>
+        <v>0.0412078103258416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>22.5555555555556</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>29</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.60940130461795</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" t="n">
-        <v>0.160022717938727</v>
+        <v>71.1520634802922</v>
       </c>
       <c r="K10" t="n">
-        <v>73.5411322311717</v>
+        <v>71.1520634802922</v>
       </c>
       <c r="L10" t="n">
-        <v>68.7323503952092</v>
-      </c>
-      <c r="M10" t="n">
-        <v>77.2364796288241</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.03046902812976</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0412078103258416</v>
-      </c>
+        <v>71.1520634802922</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>20.4</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
+        <v>0.894427190999916</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0438444701470547</v>
+      </c>
+      <c r="J11" t="n">
+        <v>69.6874660675479</v>
+      </c>
       <c r="K11" t="n">
-        <v>71.1520634802922</v>
+        <v>66.7839066655229</v>
       </c>
       <c r="L11" t="n">
-        <v>71.1520634802922</v>
+        <v>74.8344370860927</v>
       </c>
       <c r="M11" t="n">
-        <v>71.1520634802922</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>3.08250547823907</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0442332840062115</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>20.4</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>3.71184290855335</v>
       </c>
       <c r="I12" t="n">
-        <v>0.894427190999916</v>
+        <v>0.16872013220697</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0438444701470547</v>
+        <v>75.9347379473527</v>
       </c>
       <c r="K12" t="n">
-        <v>69.6874660675479</v>
+        <v>70.9246956501784</v>
       </c>
       <c r="L12" t="n">
-        <v>66.7839066655229</v>
+        <v>78.7320302765431</v>
       </c>
       <c r="M12" t="n">
-        <v>74.8344370860927</v>
+        <v>2.55258026456895</v>
       </c>
       <c r="N12" t="n">
-        <v>3.08250547823907</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0442332840062115</v>
+        <v>0.0336154483912055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>0.577350269189626</v>
       </c>
       <c r="I13" t="n">
-        <v>3.71184290855335</v>
+        <v>0.0866025403784439</v>
       </c>
       <c r="J13" t="n">
-        <v>0.16872013220697</v>
+        <v>67.3006281120079</v>
       </c>
       <c r="K13" t="n">
-        <v>75.9347379473527</v>
+        <v>63.9403706688154</v>
       </c>
       <c r="L13" t="n">
-        <v>70.9246956501784</v>
+        <v>69.0166975881262</v>
       </c>
       <c r="M13" t="n">
-        <v>78.7320302765431</v>
+        <v>1.57773538361714</v>
       </c>
       <c r="N13" t="n">
-        <v>2.55258026456895</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0336154483912055</v>
+        <v>0.0234431004268092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
       </c>
       <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
         <v>10</v>
       </c>
-      <c r="F14" t="n">
-        <v>6.66666666666667</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.577350269189626</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0866025403784439</v>
+        <v>68.6580541084378</v>
       </c>
       <c r="K14" t="n">
-        <v>67.3006281120079</v>
+        <v>64.3302378832209</v>
       </c>
       <c r="L14" t="n">
-        <v>63.9403706688154</v>
+        <v>72.9932717884525</v>
       </c>
       <c r="M14" t="n">
-        <v>69.0166975881262</v>
+        <v>3.38587407746698</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57773538361714</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.0234431004268092</v>
+        <v>0.0493150311559859</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9.55555555555556</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1.58989866902824</v>
       </c>
       <c r="I15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.166384744433188</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0740740740740741</v>
+        <v>71.8687876866198</v>
       </c>
       <c r="K15" t="n">
-        <v>68.6580541084378</v>
+        <v>67.2565430172353</v>
       </c>
       <c r="L15" t="n">
-        <v>64.3302378832209</v>
+        <v>74.1824809692291</v>
       </c>
       <c r="M15" t="n">
-        <v>72.9932717884525</v>
+        <v>2.23864336327452</v>
       </c>
       <c r="N15" t="n">
-        <v>3.38587407746698</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.0493150311559859</v>
+        <v>0.0311490347247265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>9.55555555555556</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>2.58198889747161</v>
       </c>
       <c r="I16" t="n">
-        <v>1.58989866902824</v>
+        <v>0.129099444873581</v>
       </c>
       <c r="J16" t="n">
-        <v>0.166384744433188</v>
+        <v>65.8313339650201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.8687876866198</v>
+        <v>64.5312256252925</v>
       </c>
       <c r="L16" t="n">
-        <v>67.2565430172353</v>
+        <v>68.9142152183172</v>
       </c>
       <c r="M16" t="n">
-        <v>74.1824809692291</v>
+        <v>1.31699299513122</v>
       </c>
       <c r="N16" t="n">
-        <v>2.23864336327452</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0311490347247265</v>
+        <v>0.0200055644600945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>10.4166666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>0.792961461098759</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58198889747161</v>
+        <v>0.0761243002654809</v>
       </c>
       <c r="J17" t="n">
-        <v>0.129099444873581</v>
+        <v>64.3134935361298</v>
       </c>
       <c r="K17" t="n">
-        <v>65.8313339650201</v>
+        <v>62.4087591240876</v>
       </c>
       <c r="L17" t="n">
-        <v>64.5312256252925</v>
+        <v>67.8593652769135</v>
       </c>
       <c r="M17" t="n">
-        <v>68.9142152183172</v>
+        <v>1.44977816377411</v>
       </c>
       <c r="N17" t="n">
-        <v>1.31699299513122</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.0200055644600945</v>
+        <v>0.02254236372589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="F18" t="n">
-        <v>10.4166666666667</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>0.516397779494322</v>
       </c>
       <c r="I18" t="n">
-        <v>0.792961461098759</v>
+        <v>0.0679470762492529</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0761243002654809</v>
+        <v>70.7090279636206</v>
       </c>
       <c r="K18" t="n">
-        <v>64.3134935361298</v>
+        <v>64.3119798722663</v>
       </c>
       <c r="L18" t="n">
-        <v>62.4087591240876</v>
+        <v>72.6946721311475</v>
       </c>
       <c r="M18" t="n">
-        <v>67.8593652769135</v>
+        <v>2.44453176478632</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44977816377411</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.02254236372589</v>
+        <v>0.0345717065442339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
       </c>
       <c r="E19" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F19" t="n">
         <v>12</v>
       </c>
-      <c r="F19" t="n">
-        <v>7.6</v>
-      </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>0.462910049886276</v>
       </c>
       <c r="I19" t="n">
-        <v>0.516397779494322</v>
+        <v>0.0377885755009205</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0679470762492529</v>
+        <v>67.7541642280793</v>
       </c>
       <c r="K19" t="n">
-        <v>70.7090279636206</v>
+        <v>64.502700270027</v>
       </c>
       <c r="L19" t="n">
-        <v>64.3119798722663</v>
+        <v>72.2190611664296</v>
       </c>
       <c r="M19" t="n">
-        <v>72.6946721311475</v>
+        <v>2.37392574813232</v>
       </c>
       <c r="N19" t="n">
-        <v>2.44453176478632</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.0345717065442339</v>
+        <v>0.035037340880496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>0.788810637746616</v>
       </c>
       <c r="I20" t="n">
-        <v>0.462910049886276</v>
+        <v>0.0597583816474709</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0377885755009205</v>
+        <v>68.3226668417951</v>
       </c>
       <c r="K20" t="n">
-        <v>67.7541642280793</v>
+        <v>65.7836720633827</v>
       </c>
       <c r="L20" t="n">
-        <v>64.502700270027</v>
+        <v>71.2837546372185</v>
       </c>
       <c r="M20" t="n">
-        <v>72.2190611664296</v>
+        <v>1.68586075064156</v>
       </c>
       <c r="N20" t="n">
-        <v>2.37392574813232</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.035037340880496</v>
+        <v>0.0246749845778893</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>13.2</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.788810637746616</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0597583816474709</v>
+        <v>68.863262864569</v>
       </c>
       <c r="K21" t="n">
-        <v>68.3226668417951</v>
+        <v>67.5138999205718</v>
       </c>
       <c r="L21" t="n">
-        <v>65.7836720633827</v>
+        <v>70.323325635104</v>
       </c>
       <c r="M21" t="n">
-        <v>71.2837546372185</v>
+        <v>1.36212934456584</v>
       </c>
       <c r="N21" t="n">
-        <v>1.68586075064156</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.0246749845778893</v>
+        <v>0.0197802033755602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
       </c>
       <c r="E22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.646662851273</v>
       </c>
       <c r="K22" t="n">
-        <v>68.863262864569</v>
+        <v>73.0970366066241</v>
       </c>
       <c r="L22" t="n">
-        <v>67.5138999205718</v>
+        <v>75.2332485156913</v>
       </c>
       <c r="M22" t="n">
-        <v>70.323325635104</v>
+        <v>1.03690557949044</v>
       </c>
       <c r="N22" t="n">
-        <v>1.36212934456584</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.0197802033755602</v>
+        <v>0.013890849769887</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
       </c>
       <c r="E23" t="n">
+        <v>4.66666666666667</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="F23" t="n">
-        <v>4.75</v>
-      </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>0.577350269189626</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
+        <v>0.123717914826348</v>
       </c>
       <c r="J23" t="n">
-        <v>0.105263157894737</v>
+        <v>71.8917325467024</v>
       </c>
       <c r="K23" t="n">
-        <v>74.646662851273</v>
+        <v>62.0546810273405</v>
       </c>
       <c r="L23" t="n">
-        <v>73.0970366066241</v>
+        <v>76.8939393939394</v>
       </c>
       <c r="M23" t="n">
-        <v>75.2332485156913</v>
+        <v>4.0435945805395</v>
       </c>
       <c r="N23" t="n">
-        <v>1.03690557949044</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.013890849769887</v>
+        <v>0.056245613192208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>4.66666666666667</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.577350269189626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.123717914826348</v>
+        <v>73.1257142209028</v>
       </c>
       <c r="K24" t="n">
-        <v>71.8917325467024</v>
+        <v>71.0476190476191</v>
       </c>
       <c r="L24" t="n">
-        <v>62.0546810273405</v>
+        <v>74.9193176579069</v>
       </c>
       <c r="M24" t="n">
-        <v>76.8939393939394</v>
+        <v>1.39174091464455</v>
       </c>
       <c r="N24" t="n">
-        <v>4.0435945805395</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.056245613192208</v>
+        <v>0.0190321684987622</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>71.2592545054167</v>
       </c>
       <c r="K25" t="n">
-        <v>73.1257142209028</v>
+        <v>68.3602771362585</v>
       </c>
       <c r="L25" t="n">
-        <v>71.0476190476191</v>
+        <v>73.9921976592979</v>
       </c>
       <c r="M25" t="n">
-        <v>74.9193176579069</v>
+        <v>2.27335257124949</v>
       </c>
       <c r="N25" t="n">
-        <v>1.39174091464455</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.0190321684987622</v>
+        <v>0.0319025590013249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
       <c r="J26" t="n">
-        <v>0.105263157894737</v>
+        <v>73.6110069730824</v>
       </c>
       <c r="K26" t="n">
-        <v>71.2592545054167</v>
+        <v>73.6110069730824</v>
       </c>
       <c r="L26" t="n">
-        <v>68.3602771362585</v>
-      </c>
-      <c r="M26" t="n">
-        <v>73.9921976592979</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.27335257124949</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.0319025590013249</v>
-      </c>
+        <v>73.6110069730824</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>74.8378892536948</v>
+      </c>
       <c r="K27" t="n">
-        <v>73.6110069730824</v>
+        <v>72.4310926628244</v>
       </c>
       <c r="L27" t="n">
-        <v>73.6110069730824</v>
+        <v>77.2446858445651</v>
       </c>
       <c r="M27" t="n">
-        <v>73.6110069730824</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27"/>
+        <v>3.40372438068222</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0454812985056787</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>17.875</v>
       </c>
       <c r="F28" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>26</v>
+        <v>1.88509188862809</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.105459686077096</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>75.2244542104199</v>
       </c>
       <c r="K28" t="n">
-        <v>74.8378892536948</v>
+        <v>71.7482428115016</v>
       </c>
       <c r="L28" t="n">
-        <v>72.4310926628244</v>
+        <v>78.2570310366797</v>
       </c>
       <c r="M28" t="n">
-        <v>77.2446858445651</v>
+        <v>2.22365715972822</v>
       </c>
       <c r="N28" t="n">
-        <v>3.40372438068222</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.0454812985056787</v>
+        <v>0.0295602963566628</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>14.1</v>
       </c>
       <c r="F29" t="n">
-        <v>17.875</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>21</v>
+        <v>3.34829973435938</v>
       </c>
       <c r="I29" t="n">
-        <v>1.88509188862809</v>
+        <v>0.237468066266623</v>
       </c>
       <c r="J29" t="n">
-        <v>0.105459686077096</v>
+        <v>72.8603245172677</v>
       </c>
       <c r="K29" t="n">
-        <v>75.2244542104199</v>
+        <v>68.1499986988316</v>
       </c>
       <c r="L29" t="n">
-        <v>71.7482428115016</v>
+        <v>75.9114262971271</v>
       </c>
       <c r="M29" t="n">
-        <v>78.2570310366797</v>
+        <v>2.09602105197606</v>
       </c>
       <c r="N29" t="n">
-        <v>2.22365715972822</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.0295602963566628</v>
+        <v>0.0287676601204173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>8.57142857142857</v>
       </c>
       <c r="F30" t="n">
-        <v>14.1</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>3.30943816264649</v>
       </c>
       <c r="I30" t="n">
-        <v>3.34829973435938</v>
+        <v>0.386101118975423</v>
       </c>
       <c r="J30" t="n">
-        <v>0.237468066266623</v>
+        <v>72.7079263053027</v>
       </c>
       <c r="K30" t="n">
-        <v>72.8603245172677</v>
+        <v>65.1223425591657</v>
       </c>
       <c r="L30" t="n">
-        <v>68.1499986988316</v>
+        <v>77.3941759231462</v>
       </c>
       <c r="M30" t="n">
-        <v>75.9114262971271</v>
+        <v>4.3853369277183</v>
       </c>
       <c r="N30" t="n">
-        <v>2.09602105197606</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.0287676601204173</v>
+        <v>0.0603144271960686</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>8.57142857142857</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.30943816264649</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="J31" t="n">
-        <v>0.386101118975423</v>
+        <v>73.9690897682214</v>
       </c>
       <c r="K31" t="n">
-        <v>72.7079263053027</v>
+        <v>73.5762855928602</v>
       </c>
       <c r="L31" t="n">
-        <v>65.1223425591657</v>
+        <v>74.7271933653427</v>
       </c>
       <c r="M31" t="n">
-        <v>77.3941759231462</v>
+        <v>0.656680992449</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3853369277183</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0603144271960686</v>
+        <v>0.00887777576426421</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>24</v>
+        <v>0.866025403784439</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.118094373243333</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0434782608695652</v>
+        <v>73.0760547309405</v>
       </c>
       <c r="K32" t="n">
-        <v>73.9690897682214</v>
+        <v>68.3760683760684</v>
       </c>
       <c r="L32" t="n">
-        <v>73.5762855928602</v>
+        <v>83.1460674157302</v>
       </c>
       <c r="M32" t="n">
-        <v>74.7271933653427</v>
+        <v>4.64481882802869</v>
       </c>
       <c r="N32" t="n">
-        <v>0.656680992449</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.00887777576426421</v>
+        <v>0.0635614339762935</v>
       </c>
     </row>
     <row r="33">
@@ -2049,178 +1944,122 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>7.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.866025403784439</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
       <c r="J33" t="n">
-        <v>0.118094373243333</v>
+        <v>67.1716044264438</v>
       </c>
       <c r="K33" t="n">
-        <v>73.0760547309405</v>
+        <v>67.1716044264438</v>
       </c>
       <c r="L33" t="n">
-        <v>68.3760683760684</v>
-      </c>
-      <c r="M33" t="n">
-        <v>83.1460674157302</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.64481882802869</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.0635614339762935</v>
-      </c>
+        <v>67.1716044264438</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>20.1</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H34" t="n">
-        <v>40</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
+        <v>2.60128173535022</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.129417001758718</v>
+      </c>
+      <c r="J34" t="n">
+        <v>74.1051816324501</v>
+      </c>
       <c r="K34" t="n">
-        <v>67.1716044264438</v>
+        <v>67.1988255803285</v>
       </c>
       <c r="L34" t="n">
-        <v>67.1716044264438</v>
+        <v>82.5692137320044</v>
       </c>
       <c r="M34" t="n">
-        <v>67.1716044264438</v>
-      </c>
-      <c r="N34"/>
-      <c r="O34"/>
+        <v>5.02092927400351</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0677540917301373</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>21.6</v>
       </c>
       <c r="F35" t="n">
-        <v>20.1</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>2.7968235951204</v>
       </c>
       <c r="I35" t="n">
-        <v>2.60128173535022</v>
+        <v>0.129482573848167</v>
       </c>
       <c r="J35" t="n">
-        <v>0.129417001758718</v>
+        <v>82.6026329341775</v>
       </c>
       <c r="K35" t="n">
-        <v>74.1051816324501</v>
+        <v>80.4653971403308</v>
       </c>
       <c r="L35" t="n">
-        <v>67.1988255803285</v>
+        <v>86.3241000936705</v>
       </c>
       <c r="M35" t="n">
-        <v>82.5692137320044</v>
+        <v>1.78658348215335</v>
       </c>
       <c r="N35" t="n">
-        <v>5.02092927400351</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.0677540917301373</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="G36" t="n">
-        <v>18</v>
-      </c>
-      <c r="H36" t="n">
-        <v>26</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.7968235951204</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.129482573848167</v>
-      </c>
-      <c r="K36" t="n">
-        <v>82.6026329341775</v>
-      </c>
-      <c r="L36" t="n">
-        <v>80.4653971403308</v>
-      </c>
-      <c r="M36" t="n">
-        <v>86.3241000936705</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.78658348215335</v>
-      </c>
-      <c r="O36" t="n">
         <v>0.0216286505489117</v>
       </c>
     </row>

--- a/output/summary_fish_samples_sp.xlsx
+++ b/output/summary_fish_samples_sp.xlsx
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Muraenolepididae</t>
   </si>
   <si>
-    <t xml:space="preserve">Muraenolepsis sp</t>
+    <t xml:space="preserve">Muraenolepis sp</t>
   </si>
   <si>
     <t xml:space="preserve">Myctophidae</t>
@@ -1030,9 +1030,7 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12"/>
       <c r="D12" t="n">
         <v>10</v>
       </c>

--- a/output/summary_fish_samples_sp.xlsx
+++ b/output/summary_fish_samples_sp.xlsx
@@ -1030,7 +1030,9 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
